--- a/file.xlsx
+++ b/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\DataView\tool\ExcelToDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE8581-C7C8-4786-8D91-447AF395D50D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48522B-3033-4D6E-AC35-69947BB89A07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15396" yWindow="960" windowWidth="7644" windowHeight="11688" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,142 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>VARCHAR(32)</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>BIGINT(13)</t>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>BEIZH</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>QUYBM</t>
-  </si>
-  <si>
-    <t>区域编码</t>
-  </si>
-  <si>
-    <t>CHUANGJR</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>CHUANGJSHJ</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>XITONGSHJ</t>
-  </si>
-  <si>
-    <t>系统时间</t>
-  </si>
-  <si>
-    <t>SHUJCJSHJ</t>
-  </si>
-  <si>
-    <t>数据采集时间</t>
-  </si>
-  <si>
-    <t>DECIMAL(15,4)</t>
-  </si>
-  <si>
-    <t>XIANLLX</t>
-  </si>
-  <si>
-    <t>线路类型</t>
-  </si>
-  <si>
-    <t>ZHUANGBXZH</t>
-  </si>
-  <si>
-    <t>装备现状</t>
-  </si>
-  <si>
-    <t>GOUMJE</t>
-  </si>
-  <si>
-    <t>购买金额</t>
-  </si>
-  <si>
-    <t>GOUMRQ</t>
-  </si>
-  <si>
-    <t>购买日期</t>
-  </si>
-  <si>
-    <t>BAOFRQ</t>
-  </si>
-  <si>
-    <t>报废日期</t>
-  </si>
-  <si>
-    <t>FUZR</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>LIANXDH</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>VARCHAR(6000)</t>
-  </si>
-  <si>
-    <t>TONGXXCHD</t>
-  </si>
-  <si>
-    <t>通信线长度</t>
-  </si>
-  <si>
-    <t>JINGBXCHD</t>
-  </si>
-  <si>
-    <t>警报线长度</t>
-  </si>
-  <si>
-    <t>CHUANSHDK</t>
-  </si>
-  <si>
-    <t>传输带宽</t>
-  </si>
-  <si>
-    <t>ZUQ</t>
-  </si>
-  <si>
-    <t>租期</t>
-  </si>
-  <si>
-    <t>NIANZF</t>
-  </si>
-  <si>
-    <t>年支付</t>
-  </si>
-  <si>
-    <t>ZUYDW</t>
-  </si>
-  <si>
-    <t>主要单位</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>guid</t>
   </si>
@@ -601,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -612,24 +477,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29.4" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
@@ -696,231 +561,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18C841-E2AB-42D6-AF12-CD853E18ED5C}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="4"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\DataView\tool\ExcelToDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ritoom\java\ImportDB4Comment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48522B-3033-4D6E-AC35-69947BB89A07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8137D-1E0F-482A-9392-9C6EC10B74DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15396" yWindow="960" windowWidth="7644" windowHeight="11688" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>guid</t>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
+    <t>id</t>
   </si>
   <si>
-    <t>id</t>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
 </sst>
 </file>
@@ -466,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -477,30 +492,36 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="4"/>
@@ -561,26 +582,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18C841-E2AB-42D6-AF12-CD853E18ED5C}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="A1:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+    <row r="1" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="4"/>
